--- a/class/k-map.xlsx
+++ b/class/k-map.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lenovo\Desktop\Cloud\gdrive\aca\SENAC\2020.S02\2 - FRI - Organização de Computadores\0.CLASS\02 - 2020-08-28\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lenovo\Desktop\Cloud\gdrive\dev\Git Repo\SenacRS\SenacRS-Organizacao-Computadores\Class\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A1BE730F-4777-4F61-A7DF-820523080273}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7FA89018-46E8-4DE6-B70C-09C0D17E3969}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabela Verdade" sheetId="1" r:id="rId1"/>
@@ -688,10 +688,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -1623,8 +1623,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:O20"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H22" sqref="H22"/>
+    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
+      <selection activeCell="O6" sqref="O6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1732,7 +1732,7 @@
         <v xml:space="preserve"> S'</v>
       </c>
       <c r="L5" s="3" t="str">
-        <f t="shared" ref="L5:L11" si="4">IF(F5=0,_xlfn.CONCAT(H5,"+",I5,"+",J5,"+",K5),_xlfn.CONCAT(H5,".",I5,".",J5,".",K5))</f>
+        <f>IF(F5=0,_xlfn.CONCAT(H5,"+",I5,"+",J5,"+",K5),_xlfn.CONCAT(H5,".",I5,".",J5,".",K5))</f>
         <v>D'+ V'+ T'+ S'</v>
       </c>
     </row>
@@ -1772,14 +1772,14 @@
         <v xml:space="preserve"> S'</v>
       </c>
       <c r="L6" s="3" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" ref="L6:L20" si="4">IF(F6=0,_xlfn.CONCAT(H6,"+",I6,"+",J6,"+",K6),_xlfn.CONCAT(H6,".",I6,".",J6,".",K6))</f>
         <v>D'+ V'+ T+ S'</v>
       </c>
       <c r="N6" s="2" t="s">
         <v>6</v>
       </c>
       <c r="O6" t="str">
-        <f t="array" ref="O6">_xlfn.CONCAT("(",_xlfn.TEXTJOIN(") + (",TRUE,IF(F6:F21=1,L6:L21,"")),")")</f>
+        <f t="array" ref="O6">_xlfn.CONCAT("(",_xlfn.TEXTJOIN(") + (",TRUE,IF(F5:F20=1,L5:L20,"")),")")</f>
         <v>(D'. V. T. S) + (D. V'. T. S') + (D. V'. T'. S) + (D. V'. T. S) + (D. V. T'. S') + (D. V. T. S') + (D. V. T'. S) + (D. V. T. S)</v>
       </c>
     </row>
@@ -2026,7 +2026,7 @@
         <v xml:space="preserve"> S</v>
       </c>
       <c r="L12" s="3" t="str">
-        <f>IF(F12=0,_xlfn.CONCAT(H12,"+",I12,"+",J12,"+",K12),_xlfn.CONCAT(H12,".",I12,".",J12,".",K12))</f>
+        <f t="shared" si="4"/>
         <v>D'. V. T. S</v>
       </c>
     </row>
@@ -2066,7 +2066,7 @@
         <v xml:space="preserve"> S'</v>
       </c>
       <c r="L13" s="3" t="str">
-        <f t="shared" ref="L13:L20" si="5">IF(F13=0,_xlfn.CONCAT(H13,"+",I13,"+",J13,"+",K13),_xlfn.CONCAT(H13,".",I13,".",J13,".",K13))</f>
+        <f t="shared" si="4"/>
         <v>D+ V'+ T'+ S'</v>
       </c>
     </row>
@@ -2106,7 +2106,7 @@
         <v xml:space="preserve"> S'</v>
       </c>
       <c r="L14" s="3" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>D. V'. T. S'</v>
       </c>
     </row>
@@ -2146,7 +2146,7 @@
         <v xml:space="preserve"> S</v>
       </c>
       <c r="L15" s="3" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>D. V'. T'. S</v>
       </c>
     </row>
@@ -2186,7 +2186,7 @@
         <v xml:space="preserve"> S</v>
       </c>
       <c r="L16" s="3" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>D. V'. T. S</v>
       </c>
     </row>
@@ -2226,7 +2226,7 @@
         <v xml:space="preserve"> S'</v>
       </c>
       <c r="L17" s="3" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>D. V. T'. S'</v>
       </c>
     </row>
@@ -2266,7 +2266,7 @@
         <v xml:space="preserve"> S'</v>
       </c>
       <c r="L18" s="3" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>D. V. T. S'</v>
       </c>
     </row>
@@ -2306,7 +2306,7 @@
         <v xml:space="preserve"> S</v>
       </c>
       <c r="L19" s="3" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>D. V. T'. S</v>
       </c>
     </row>
@@ -2346,7 +2346,7 @@
         <v xml:space="preserve"> S</v>
       </c>
       <c r="L20" s="3" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>D. V. T. S</v>
       </c>
     </row>
@@ -2362,7 +2362,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{119D465C-CA8A-4A07-A2DF-D67F8AA1FFF5}">
   <dimension ref="A1:P32"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="I10" sqref="I10"/>
     </sheetView>
   </sheetViews>
@@ -2375,14 +2375,14 @@
       <c r="H1" t="s">
         <v>11</v>
       </c>
-      <c r="I1" s="32" t="str">
+      <c r="I1" s="31" t="str">
         <f>_xlfn.CONCAT("(",_xlfn.TEXTJOIN(") + (",TRUE,J10,J18,J26),")")</f>
         <v>(D.V) + (D.V') + (T.S)</v>
       </c>
-      <c r="J1" s="32"/>
-      <c r="K1" s="32"/>
-      <c r="L1" s="32"/>
-      <c r="M1" s="32"/>
+      <c r="J1" s="31"/>
+      <c r="K1" s="31"/>
+      <c r="L1" s="31"/>
+      <c r="M1" s="31"/>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
@@ -2669,12 +2669,12 @@
       <c r="F10" s="1">
         <v>0</v>
       </c>
-      <c r="J10" s="31" t="s">
+      <c r="J10" s="32" t="s">
         <v>8</v>
       </c>
-      <c r="K10" s="31"/>
-      <c r="L10" s="31"/>
-      <c r="M10" s="31"/>
+      <c r="K10" s="32"/>
+      <c r="L10" s="32"/>
+      <c r="M10" s="32"/>
       <c r="N10" s="4"/>
       <c r="O10" s="4"/>
       <c r="P10" s="4"/>
@@ -2785,19 +2785,19 @@
         <v>0</v>
       </c>
       <c r="J13" s="6">
-        <f>J5</f>
+        <f t="shared" ref="J13:M16" si="0">J5</f>
         <v>0</v>
       </c>
       <c r="K13" s="7">
-        <f>K5</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="L13" s="7">
-        <f>L5</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="M13" s="8">
-        <f>M5</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="N13" s="4"/>
@@ -2830,19 +2830,19 @@
         <v>1</v>
       </c>
       <c r="J14" s="22">
-        <f>J6</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="K14" s="23">
-        <f>K6</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="L14" s="23">
-        <f>L6</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="M14" s="20">
-        <f>M6</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="N14" s="4"/>
@@ -2875,19 +2875,19 @@
         <v>0</v>
       </c>
       <c r="J15" s="22">
-        <f>J7</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="K15" s="23">
-        <f>K7</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="L15" s="23">
-        <f>L7</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="M15" s="20">
-        <f>M7</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="N15" s="4"/>
@@ -2920,19 +2920,19 @@
         <v>1</v>
       </c>
       <c r="J16" s="19">
-        <f>J8</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="K16" s="17">
-        <f>K8</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="L16" s="17">
-        <f>L8</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="M16" s="18">
-        <f>M8</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="N16" s="4"/>
@@ -2987,12 +2987,12 @@
       <c r="F18" s="1">
         <v>1</v>
       </c>
-      <c r="J18" s="31" t="s">
+      <c r="J18" s="32" t="s">
         <v>12</v>
       </c>
-      <c r="K18" s="31"/>
-      <c r="L18" s="31"/>
-      <c r="M18" s="31"/>
+      <c r="K18" s="32"/>
+      <c r="L18" s="32"/>
+      <c r="M18" s="32"/>
       <c r="N18" s="4"/>
       <c r="O18" s="4"/>
       <c r="P18" s="4"/>
@@ -3067,19 +3067,19 @@
         <v>0</v>
       </c>
       <c r="J21" s="28">
-        <f>J13</f>
+        <f t="shared" ref="J21:M24" si="1">J13</f>
         <v>0</v>
       </c>
       <c r="K21" s="29">
-        <f>K13</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="L21" s="29">
-        <f>L13</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="M21" s="30">
-        <f>M13</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="N21" s="4"/>
@@ -3094,19 +3094,19 @@
         <v>1</v>
       </c>
       <c r="J22" s="22">
-        <f>J14</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="K22" s="23">
-        <f>K14</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="L22" s="23">
-        <f>L14</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="M22" s="20">
-        <f>M14</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="N22" s="4"/>
@@ -3121,19 +3121,19 @@
         <v>0</v>
       </c>
       <c r="J23" s="22">
-        <f>J15</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="K23" s="15">
-        <f>K15</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="L23" s="15">
-        <f>L15</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="M23" s="20">
-        <f>M15</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="N23" s="4"/>
@@ -3148,19 +3148,19 @@
         <v>1</v>
       </c>
       <c r="J24" s="24">
-        <f>J16</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="K24" s="25">
-        <f>K16</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="L24" s="25">
-        <f>L16</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="M24" s="21">
-        <f>M16</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="N24" s="4"/>
@@ -3179,12 +3179,12 @@
       <c r="P25" s="4"/>
     </row>
     <row r="26" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="J26" s="31" t="s">
+      <c r="J26" s="32" t="s">
         <v>13</v>
       </c>
-      <c r="K26" s="31"/>
-      <c r="L26" s="31"/>
-      <c r="M26" s="31"/>
+      <c r="K26" s="32"/>
+      <c r="L26" s="32"/>
+      <c r="M26" s="32"/>
     </row>
     <row r="27" spans="1:16" x14ac:dyDescent="0.25">
       <c r="H27" s="5"/>
@@ -3232,19 +3232,19 @@
         <v>0</v>
       </c>
       <c r="J29" s="28">
-        <f>J21</f>
+        <f t="shared" ref="J29:M32" si="2">J21</f>
         <v>0</v>
       </c>
       <c r="K29" s="29">
-        <f>K21</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="L29" s="29">
-        <f>L21</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="M29" s="30">
-        <f>M21</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -3256,19 +3256,19 @@
         <v>1</v>
       </c>
       <c r="J30" s="22">
-        <f>J22</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="K30" s="23">
-        <f>K22</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="L30" s="23">
-        <f>L22</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="M30" s="16">
-        <f>M22</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
@@ -3280,19 +3280,19 @@
         <v>0</v>
       </c>
       <c r="J31" s="22">
-        <f>J23</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="K31" s="23">
-        <f>K23</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="L31" s="23">
-        <f>L23</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="M31" s="16">
-        <f>M23</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
@@ -3304,19 +3304,19 @@
         <v>1</v>
       </c>
       <c r="J32" s="24">
-        <f>J24</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="K32" s="25">
-        <f>K24</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="L32" s="25">
-        <f>L24</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="M32" s="21">
-        <f>M24</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
@@ -3362,14 +3362,14 @@
       <c r="A1" t="s">
         <v>11</v>
       </c>
-      <c r="B1" s="32" t="str">
+      <c r="B1" s="31" t="str">
         <f>'Karnaugh Maps '!I1</f>
         <v>(D.V) + (D.V') + (T.S)</v>
       </c>
-      <c r="C1" s="32"/>
-      <c r="D1" s="32"/>
-      <c r="E1" s="32"/>
-      <c r="F1" s="32"/>
+      <c r="C1" s="31"/>
+      <c r="D1" s="31"/>
+      <c r="E1" s="31"/>
+      <c r="F1" s="31"/>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
